--- a/DOM_Banner/output/dept0713/Frank Brosius_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Frank Brosius_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Institute of Translational Health Sciences, Kidney Research Institute, and Nephrology Division, University of Washington, Seattle, Washington, USA; Providence Medical Research Center, Providence Health Care, Spokane, Washington, USA; Nephrology Division, Indiana University School of Medicine, Indianapolis, Indiana, USA; Nephrology Division, VA Medical Center, Indianapolis, Indiana, USA; Department of Laboratory Medicine and Pathology, University of Washington, Seattle, Washington, USA; American Heart Association Comprehensive Hypertension Center at the University of Chicago Medicine, Chicago, Illinois, USA; Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan, USA; Department of Medicine, College of Medicine, University of Arizona, Tucson, Arizona, USA; Cardiovascular Precision Medicines, Pharmaceuticals, Research &amp; Development, Bayer AG, Wuppertal, Germany; Division of Nephrology, Icahn School of Medicine at Mount Sinai, New York, New York, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281918786</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Molecular mechanisms and therapeutic targets for diabetic kidney disease</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-08-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Kidney International</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.kint.2022.05.012</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35661785</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.kint.2022.05.012</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Nephrology Division and Kidney Research Institute, University of Washington, Seattle, Washington; Providence Medical Research Center, Providence Health Care; Department of Kidney Medicine, Cleveland Clinic, Cleveland, Ohio; Department of Pharmaceutical Care and Health Systems, College of Pharmacy, University of Minnesota, Minneapolis, Minnesota; Nephrology Division and Kidney Research Institute, University of Washington, Seattle, Washington; Nephrology Division, George Washington University School of Medicine, Washington, DC; Nephrology Division, University of North Carolina at Chapel Hill, Chapel Hill, North Carolina; Nephrology Division, Yale University School of Medicine, New Haven, Connecticut; Nephrology Division, Vanderbilt University Medical Center, Nashville, Tennessee; iAdvocate, Inc.; The Voice of the Patient, Inc.; Nephrology Division, Toronto General Hospital, Toronto, Ontario, Canada; Nephrology Division, University of Arizona, Tucson, Arizona; Nephrology Division, University of New Mexico, Albuquerque, New Mexico; Nephrology Division, Northwestern University, Evanston, Illinois</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281623679</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Moving from Evidence to Implementation of Breakthrough Therapies for Diabetic Kidney Disease</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-07-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Clinical Journal of the American Society of Nephrology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.2215/cjn.02980322</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35649722</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.2215/cjn.02980322</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>University of North Carolina Kidney Center, University of North Carolina Kidney Center School of Medicine, Chapel Hill, North Carolina; Department of Medicine, University of Washington School of Medicine, Seattle, Washington; Providence Medical Research Center, Providence Health Care, Spokane, Washington; Division of Nephrology, Department of Internal Medicine, University of New Mexico Health Sciences Center, Albuquerque, New Mexico; Department of Medicine, University of Arizona, Tucson, Arizona; Departments of Internal Medicine and Molecular and Integrative Physiology, University of Michigan, Ann Arbor, Michigan; Departments of Pediatrics and Medicine, University of Minnesota, Minneapolis, Minnesota; Department of Medicine, Northwestern University Feinberg School of Medicine, Chicago, Illinois; National Institute of Diabetes and Digestive and Kidney Diseases, Phoenix, Arizona; Division of Endocrinology, Metabolism and Diabetes Affiliate, Center for Global Health, University of Colorado Anschutz Medical Campus and Colorado School of Public Health, Aurora, Colorado; Divisions of Nephrology and Endocrinology, Department of Medicine, David Geffen School of Medicine at UCLA, Los Angeles, California</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4210749107</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>KDOQI US Commentary on the KDIGO 2020 Clinical Practice Guideline for Diabetes Management in CKD</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-04-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>American Journal of Kidney Diseases</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1053/j.ajkd.2021.09.010</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35144840</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1053/j.ajkd.2021.09.010</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Forschergruppe Diabetes e. V., Helmholtz Center Munich, Ingolstaedter Landstraße 1, 85764, Munich, Germany; University Medical Center, Ljubljana, Slovenia; International Diabetes Center at Park Nicollet, Health Partners, Minneapolis, MN, USA; Department of Medicine, University of Leipzig, Leipzig, Germany; Klinik für Innere Medizin III, Universitätsklinikum des Saarlandes, Saarland University, Homburg, Germany; College of Medicine, University of Arizona, Tuscon, AZ, USA; University College London, London, UK; IRCCS MultiMedica, Milan, Italy; CRS Clinical Research Services Mannheim GmbH, Mannheim, Germany; Department of Emergency and Organ Transplantation, University of Bari Aldo Moro, Bari, Italy; Department of Endocrinology Diabetology and Nutrition, Nancy University Hospital, Nancy, France; Department of Clinical Pharmacy and Pharmacology, University Medical Center Groningen, University of Groningen, Groningen, The Netherlands; Clalit Health Services and Technion Faculty of Medicine, Haifa, Israel; Peking University People’s Hospital, Xicheng District, Beijing, China; Cardiometabolic Center of Excellence, University of Missouri-Kansas City, Kansas City, MO, USA; Faculty of Medicine, Clinic for Endocrinology, Diabetes and Metabolic Diseases, University Clinical Center of Serbia, University of Belgrade, Belgrade, Serbia; Department of Internal Medicine I, University Hospital Aachen, Aachen, Germany; Department of Internal Medicine I, University Hospital Aachen, Aachen, Germany; Diabetes Division, Katholisches Klinikum Bochum, St. Josef-Hospital, Ruhr University Bochum, Bochum, Germany; Endocrine and Metabolic Consultants, Rockville, MD, USA; Department of Medical Sciences, IRCCS, Rome, Italy; Steno Diabetes Center Copenhagen, Herlev, Denmark; Department of Medicine K2, Karolinska Institute, Stockholm, Sweden; Department of Medicine and Aging, Hospital and, University of Chieti, Chieti, Italy; Centre Internal Medicine Fünf Höfe, Munich, Germany; Department of Medicine, Lovisenberg Diaconal Hospital, Oslo, Norway; Steno Diabetes Center Copenhagen, Herlev, Denmark; University Hospital of Würzburg, Würzburg, Germany; Section of Endocrinology and Metabolism, MultiCare Rockwood Clinic, Spokane, WA, USA; Forschergruppe Diabetes e. V., Helmholtz Center Munich, Ingolstaedter Landstraße 1, 85764, Munich, Germany</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4223600876</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Report from the CVOT Summit 2021: new cardiovascular, renal, and glycemic outcomes</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-04-08</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Cardiovascular Diabetology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>BioMed Central</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1186/s12933-022-01481-0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35395808</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1186/s12933-022-01481-0</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t xml:space="preserve">Department of Nephrology, The Second Xiangya Hospital, Central South University, Changsha, China; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, MI; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, MI; Renal Division, Department of Medicine, Peking University First Hospital, Beijing, China; Renal Division, Department of Medicine, Peking University First Hospital, Beijing, China; Division of Nephrology, University of Washington, Seattle, WA; Division of Nephrology, University of Washington, Seattle, WA; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, MI; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, MI; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, MI; Nephrology, Ascension St. John Hospital, Detroit, MI; Division of Cardiovascular Medicine, Department of Internal Medicine, University of Michigan, Ann Arbor, MI; Department of Nephrology and Hypertension, Department of Medicine, Wayne State University, Detroit, MI; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, MI; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, MI; Kidney and Hypertension Unit, Joslin Diabetes Center and Harvard Medical School, Boston, MA; Department of Medicine, Cleveland Clinic, Cleveland, OH; Department of Internal Medicine, UT Southwestern Medical Center, Dallas, TX; Section of Nephrology, Department of Medicine, Boston University School of Medicine and Boston Medical Center, Brookline, MA; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, MI; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, MI; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, MI; Division of Nephrology, Department of Medicine, University of Arizona, Tucson, AZ; Division of Nephrology, University of Washington, Seattle, WA; Renal Division, Department of Medicine, Peking University First Hospital, Beijing, China; Department of Computational Medicine and Bioinformatics, University of Michigan, Ann Arbor, MI; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, MI; Department of Computational Medicine and Bioinformatics, University of Michigan, Ann Arbor, MI; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, MI; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4308183021</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Multi-Scalar Data Integration Links Glomerular Angiopoietin-Tie Signaling Pathway Activation With Progression of Diabetic Kidney Disease</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-11-04</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Diabetes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>American Diabetes Association</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.2337/db22-0169</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36331122</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.2337/db22-0169</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>University Medical Center Ljubljana, University of Ljubljana, Ljubljana, Slovenia; University of Arizona College of Medicine–Tucson, AZ, USA; IRCCS MultiMedica, Milan, Italy; Cardiology Unit, Department of Medicine, Karolinska Institute, Karolinska University Hospital, Stockholm, Sweden; Duke University Medical Center, Duke Clinical Research Institute, Durham, NC, USA; Marienhospital Stuttgart, Stuttgart, Germany; PCNA National Office, Madison, WI, USA; Saint Luke’s Mid America Heart Institute, University of Missouri-Kansas City, Kansas City, MO, USA; The George Institute for Global Health, University of New South Wales, Sydney, Australia; Clinic for Endocrinology, Diabetes and Metabolic Diseases, University Clinical Center of Serbia, University of Belgrade, Belgrade, Serbia; Department of Internal Medicine I, University Hospital Aachen, RWTH Aachen University, Aachen, Germany; American Heart Association, Dallas, TX, USA; Department of Medicine K2, Karolinska Institute, Stockholm, Sweden; Endocrine and Metabolic Consultants, Rockville, MD, USA; Peking University People’s Hospital, Beijing, China; Division of Endocrinology and Metabolism, Department of Internal Medicine, Taichung Veterans General Hospital, Taichung City; Forschergruppe Diabetes e.V., Munich, Germany; CGParkin Communications Inc., Henderson, NV, USA; Forschergruppe Diabetes e.V., Munich, Germany</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4229083721</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Guideline Development for Medical Device Technology: Issues for Consideration</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-05-07</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Journal of Diabetes Science and Technology</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>SAGE Publishing</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177/19322968221093355</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35531901</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177/19322968221093355</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; Division of Pediatric Nephrology, Department of Pediatrics, University of Michigan, Ann Arbor, Michigan; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; Division of Pediatric Nephrology, Department of Pediatrics, University of Michigan, Ann Arbor, Michigan; Department of Kidney Medicine, Glickman Urological and Kidney Institute, Cleveland Clinic Health System, Cleveland, Ohio; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; Division of Nephrology, The University of Arizona College of Medicine Tucson, Tucson, Arizona; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4289755189</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>The Michigan O’Brien Kidney Research Center: transforming translational kidney research through systems biology</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-10-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>American Journal of Physiology-renal Physiology</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>American Physical Society</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1152/ajprenal.00091.2022</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35924446</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1152/ajprenal.00091.2022</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Department of Internal Medicine, Division of Nephrology, University of Michigan, Ann Arbor, MI, USA;;  Department of Internal Medicine, Division of Nephrology, University of Michigan, Ann Arbor, MI, USA;;  Department of Internal Medicine, Division of Nephrology, University of Michigan, Ann Arbor, MI, USA;;  Department of Internal Medicine, Division of Nephrology, University of Michigan, Ann Arbor, MI, USA;;  Department of Internal Medicine, Division of Nephrology, University of Michigan, Ann Arbor, MI, USA;;  Department of Internal Medicine, Division of Nephrology, University of Michigan, Ann Arbor, MI, USA;;  Department of Internal Medicine, Division of Nephrology, University of Michigan, Ann Arbor, MI, USA;;  Department of Internal Medicine, Division of Nephrology, University of Michigan, Ann Arbor, MI, USA;;  Department of Internal Medicine, Division of Nephrology, University of Michigan, Ann Arbor, MI, USA;;  Department of Internal Medicine, Division of Nephrology, University of Michigan, Ann Arbor, MI, USA;;  Department of Internal Medicine, Division of Nephrology, University of Michigan, Ann Arbor, MI, USA;;  Department of Internal Medicine, Division of Nephrology, University of Michigan, Ann Arbor, MI, USA;;  Department of Radiology, University of Colorado School of Medicine, Aurora, CO, USA;;  Department of Radiology, University of Colorado School of Medicine, Aurora, CO, USA;;  Department of Pediatrics, Section of Endocrinology and Department of Biostatistics and Informatics, University of Colorado School of Medicine, Aurora, CO, USA;;  Department of Internal Medicine, Division of Nephrology, University of Michigan, Ann Arbor, MI, USA;; Department of Internal Medicine, Division of Nephrology, University of Michigan, Ann Arbor, MI; Division of Nephrology, The University of Arizona College of Medicine Tucson, Tucson, AZ;  Chronic Kidney Disease Section, National Institute of Diabetes and Digestive and Kidney Diseases, Phoenix, AZ, USA;;  Department of Internal Medicine, Division of Nephrology, University of Michigan, Ann Arbor, MI, USA;;  Department of Medicine, Division of Renal Diseases and Hypertension, University of Colorado School of Medicine, Aurora, CO, USA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4286817026</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>SGLT2 inhibition mitigates perturbations in nephron segment-specific metabolic transcripts and mTOR pathway activity in kidneys of young persons with type 2 diabetes</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-07-24</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.07.23.22277943</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.07.23.22277943</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4308438380</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Multi-scalar data integration links glomerular angiopoietin-tie signaling pathway activation with progression of diabetic kidney disease</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-11-04</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.2337/figshare.20736553</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>cc-by-nc-sa</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.2337/figshare.20736553</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4308439202</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Multi-scalar data integration links glomerular angiopoietin-tie signaling pathway activation with progression of diabetic kidney disease</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-11-04</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.2337/figshare.20736553.v1</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>cc-by-nc-sa</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.2337/figshare.20736553.v1</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Frank Brosius_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Frank Brosius_2022.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>97</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -534,7 +534,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Katherine R. Tuttle, Leslie P. Wong, Wendy L. St. Peter, Glenda V. Roberts, Janani Rangaswami, Amy K. Mottl, Alan S. Kliger, Raymond C. Harris, Patrick Gee, Kevin Fowler, David Z.I. Cherney, Frank C. Brosius, Christos Argyropoulos, Susan E. Quaggin</t>
+          <t>Katherine R. Tuttle, Leslie P. Wong, Wendy L. St. Peter, Glenda V. Roberts, Janani Rangaswami, Amy K. Mottl, Alan S. Kliger, Raymond C. Harris, Patrick O. Gee, Kevin Fowler, David Z.I. Cherney, Frank C. Brosius, Christos Argyropoulos, Susan E. Quaggin</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
